--- a/info.xlsx
+++ b/info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e48b9bce4ee944d8/바탕 화면/0619/220629/DataSet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e48b9bce4ee944d8/바탕 화면/0619/220629/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="114" documentId="8_{3702B229-513B-4A99-9A8A-9FAB4E901DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5936E078-784D-4EE9-ABD8-1CFE1B98FB49}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9420" xr2:uid="{4BE44D63-D742-437C-8D3D-68160A9A235F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4BE44D63-D742-437C-8D3D-68160A9A235F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -753,82 +753,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADF6C308-2DC4-4A0E-9384-9575C20984B8}">
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1167,8 +1167,8 @@
     <col min="15" max="15" width="3.296875" customWidth="1"/>
     <col min="16" max="16" width="14.5" customWidth="1"/>
     <col min="17" max="17" width="11.19921875" customWidth="1"/>
-    <col min="18" max="18" width="6.8984375" style="21" customWidth="1"/>
-    <col min="19" max="19" width="8.796875" style="21"/>
+    <col min="18" max="18" width="6.8984375" style="19" customWidth="1"/>
+    <col min="19" max="19" width="8.796875" style="19"/>
     <col min="20" max="20" width="3.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1185,18 +1185,18 @@
       <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="P3" s="22" t="s">
+      <c r="N3" s="42"/>
+      <c r="P3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="42" t="s">
+      <c r="Q3" s="44"/>
+      <c r="R3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="36" t="s">
+      <c r="S3" s="32" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1213,16 +1213,16 @@
       <c r="N4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="42" t="s">
+      <c r="R4" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="37"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F5" s="7" t="s">
@@ -1237,16 +1237,16 @@
       <c r="N5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="26" t="s">
+      <c r="P5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="27" t="s">
+      <c r="Q5" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="37"/>
+      <c r="S5" s="33"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F6" s="9" t="s">
@@ -1261,16 +1261,16 @@
       <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="27" t="s">
+      <c r="Q6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="R6" s="42" t="s">
+      <c r="R6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S6" s="37"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.4">
       <c r="M7" s="3" t="s">
@@ -1279,16 +1279,16 @@
       <c r="N7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="26" t="s">
+      <c r="P7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="27" t="s">
+      <c r="Q7" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="32" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1303,16 +1303,16 @@
       <c r="N8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="P8" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="42" t="s">
+      <c r="R8" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S8" s="37"/>
+      <c r="S8" s="33"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F9" s="3" t="s">
@@ -1327,16 +1327,16 @@
       <c r="N9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="28" t="s">
+      <c r="P9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="R9" s="42" t="s">
+      <c r="R9" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="37"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F10" s="3" t="s">
@@ -1351,16 +1351,16 @@
       <c r="N10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="P10" s="28" t="s">
+      <c r="P10" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="R10" s="42" t="s">
+      <c r="R10" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S10" s="37"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F11" s="3" t="s">
@@ -1375,16 +1375,16 @@
       <c r="N11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="31" t="s">
+      <c r="Q11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="37"/>
+      <c r="S11" s="33"/>
     </row>
     <row r="12" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F12" s="3" t="s">
@@ -1403,16 +1403,16 @@
       <c r="N12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="31" t="s">
+      <c r="Q12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="R12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S12" s="37"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C13" s="13" t="s">
@@ -1438,16 +1438,16 @@
       <c r="N13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q13" s="31" t="s">
+      <c r="Q13" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="R13" s="42" t="s">
+      <c r="R13" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S13" s="37"/>
+      <c r="S13" s="33"/>
     </row>
     <row r="14" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C14" s="11" t="s">
@@ -1475,16 +1475,16 @@
       <c r="N14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="26" t="s">
+      <c r="P14" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="27" t="s">
+      <c r="Q14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="37"/>
+      <c r="S14" s="33"/>
     </row>
     <row r="15" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C15" s="3" t="s">
@@ -1511,16 +1511,16 @@
       <c r="N15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="27" t="s">
+      <c r="Q15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="42" t="s">
+      <c r="R15" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="S15" s="37"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C16" s="7" t="s">
@@ -1547,16 +1547,16 @@
       <c r="N16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="P16" s="32" t="s">
+      <c r="P16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="43" t="s">
+      <c r="Q16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="S16" s="37"/>
+      <c r="S16" s="33"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C17" s="9" t="s">
@@ -1571,16 +1571,16 @@
       <c r="G17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="33" t="s">
+      <c r="P17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Q17" s="27" t="s">
+      <c r="Q17" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S17" s="37"/>
+      <c r="S17" s="33"/>
     </row>
     <row r="18" spans="3:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="F18" s="15" t="s">
@@ -1589,26 +1589,26 @@
       <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="35" t="s">
+      <c r="Q18" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="S18" s="38"/>
+      <c r="S18" s="34"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.4">
       <c r="F20" s="13" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="P20" s="39" t="s">
+      <c r="P20" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="Q20" s="40" t="s">
+      <c r="Q20" s="36" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1622,7 +1622,7 @@
       <c r="P21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="Q21" s="41" t="s">
+      <c r="Q21" s="37" t="s">
         <v>73</v>
       </c>
     </row>
